--- a/profitability.xlsx
+++ b/profitability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22026"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\romcl\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\NFortuin\Desktop\Ubiqum\Modules\Module 2\M2P3 Multiple Regression\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F7CF36EB-F5D2-442F-BA69-EF5CBD8DD576}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB0BCFF4-D48B-4CA4-AEE0-7CC7A1471F2B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-165" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Potential New Product List" sheetId="1" r:id="rId1"/>
@@ -22,10 +22,10 @@
     <definedName name="Z_0E60F5D3_6264_4CC1_A007_66AE815EFEE7_.wvu.FilterData" localSheetId="1" hidden="1">'Existing Product List'!$A$2:$R$39</definedName>
     <definedName name="Z_0E60F5D3_6264_4CC1_A007_66AE815EFEE7_.wvu.FilterData" localSheetId="0" hidden="1">'Potential New Product List'!$A$2:$R$19</definedName>
   </definedNames>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="140001"/>
   <customWorkbookViews>
+    <customWorkbookView name="Ravi Starzl - Personal View" guid="{E773EDD3-07CB-0342-92CD-1C6EFAD01BAD}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1680" windowHeight="925" activeSheetId="3"/>
     <customWorkbookView name="Jeannemarie - Personal View" guid="{0E60F5D3-6264-4CC1-A007-66AE815EFEE7}" mergeInterval="0" personalView="1" maximized="1" windowWidth="1362" windowHeight="517" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="Ravi Starzl - Personal View" guid="{E773EDD3-07CB-0342-92CD-1C6EFAD01BAD}" mergeInterval="0" personalView="1" yWindow="54" windowWidth="1680" windowHeight="925" activeSheetId="3"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="62">
   <si>
     <t>Product Type</t>
   </si>
@@ -219,6 +219,9 @@
   </si>
   <si>
     <t>Existing Product List</t>
+  </si>
+  <si>
+    <t>307??</t>
   </si>
 </sst>
 </file>
@@ -389,7 +392,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -567,6 +570,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -760,87 +769,89 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="72">
-    <cellStyle name="20% - Énfasis1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Énfasis6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Énfasis6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Énfasis6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Bueno" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Cálculo" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Celda de comprobación" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Celda vinculada" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Encabezado 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Énfasis1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Énfasis2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Énfasis3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Énfasis4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Énfasis5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Énfasis6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Entrada" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Hipervínculo" xfId="42" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="44" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="46" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="48" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="50" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="52" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="54" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="56" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="58" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="60" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="62" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="64" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="66" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="68" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo" xfId="70" builtinId="8" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="43" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="45" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="47" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="49" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="51" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="53" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="55" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="57" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="59" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="61" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="63" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="65" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="67" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="69" builtinId="9" hidden="1"/>
-    <cellStyle name="Hipervínculo visitado" xfId="71" builtinId="9" hidden="1"/>
-    <cellStyle name="Incorrecto" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Notas" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Salida" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Texto de advertencia" xfId="14" builtinId="11" customBuiltin="1"/>
-    <cellStyle name="Texto explicativo" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Título" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Título 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Título 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Berekening" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Controlecel" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Gekoppelde cel" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="43" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="45" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="47" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="49" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="51" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="53" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="55" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="57" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="59" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="61" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="63" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="65" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="67" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="69" builtinId="9" hidden="1"/>
+    <cellStyle name="Gevolgde hyperlink" xfId="71" builtinId="9" hidden="1"/>
+    <cellStyle name="Goed" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="44" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="46" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="48" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="50" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="52" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="54" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="56" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="58" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="60" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="62" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="64" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="66" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="68" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="70" builtinId="8" hidden="1"/>
+    <cellStyle name="Invoer" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Kop 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Kop 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Kop 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Kop 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Neutraal" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Notitie" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Ongeldig" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Titel" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Totaal" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Uitvoer" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Verklarende tekst" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Waarschuwingstekst" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1142,13 +1153,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -1234,62 +1245,62 @@
         <v>59</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="3" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="6">
         <v>171</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="7">
         <v>699</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>96</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="6">
         <v>26</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="6">
         <v>14</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="6">
         <v>14</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="6">
         <v>25</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="6">
         <v>12</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="6">
         <v>3</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="6">
         <v>0.7</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="6">
         <v>2498</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="6">
         <v>19.899999999999999</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="6">
         <v>20.63</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="6">
         <v>19.25</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="6">
         <v>8.39</v>
       </c>
-      <c r="R3" t="s">
+      <c r="R3" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="6">
         <v>0.25</v>
       </c>
     </row>
@@ -1411,121 +1422,121 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="6" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="6">
         <v>175</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="7">
         <v>1199</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>7</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>2</v>
       </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
+      <c r="G6" s="6">
+        <v>1</v>
+      </c>
+      <c r="H6" s="6">
+        <v>1</v>
+      </c>
+      <c r="I6" s="6">
+        <v>1</v>
+      </c>
+      <c r="J6" s="6">
         <v>2</v>
       </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
+      <c r="K6" s="6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="6">
         <v>0.6</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>4446</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="6">
         <v>13</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="6">
         <v>16.3</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="6">
         <v>10.8</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="6">
         <v>1.4</v>
       </c>
-      <c r="R6" t="s">
+      <c r="R6" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="6">
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+    <row r="7" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="6">
         <v>176</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="7">
         <v>1999</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>1</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="6">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6">
+        <v>1</v>
+      </c>
+      <c r="G7" s="6">
+        <v>1</v>
+      </c>
+      <c r="H7" s="6">
         <v>3</v>
       </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
+      <c r="I7" s="6">
+        <v>0</v>
+      </c>
+      <c r="J7" s="6">
+        <v>0</v>
+      </c>
+      <c r="K7" s="6">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
         <v>0.3</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="6">
         <v>2820</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="6">
         <v>11.6</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="6">
         <v>16.809999999999999</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="6">
         <v>10.9</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="6">
         <v>0.88</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="6">
         <v>0.23</v>
       </c>
     </row>
@@ -2001,62 +2012,62 @@
         <v>0.12</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+    <row r="16" spans="1:20" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="6">
         <v>195</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="7">
         <v>149</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="6">
         <v>42</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="6">
         <v>8</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="6">
         <v>4</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="6">
         <v>4</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="6">
         <v>9</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="6">
         <v>4</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-      <c r="L16">
+      <c r="K16" s="6">
+        <v>1</v>
+      </c>
+      <c r="L16" s="6">
         <v>0.7</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="6">
         <v>6316</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="6">
         <v>0.8</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="6">
         <v>2.7</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="6">
         <v>5.3</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="6">
         <v>0.4</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R16" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="6">
         <v>0.15</v>
       </c>
     </row>
@@ -2237,16 +2248,22 @@
         <v>0.05</v>
       </c>
     </row>
+    <row r="23" spans="1:19" s="6" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B23" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" s="7"/>
+    </row>
   </sheetData>
   <customSheetViews>
+    <customSheetView guid="{E773EDD3-07CB-0342-92CD-1C6EFAD01BAD}">
+      <selection sqref="A1:XFD1"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0E60F5D3-6264-4CC1-A007-66AE815EFEE7}">
       <selection activeCell="A6" sqref="A6"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0"/>
-    </customSheetView>
-    <customSheetView guid="{E773EDD3-07CB-0342-92CD-1C6EFAD01BAD}">
-      <selection sqref="A1:XFD1"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2267,7 +2284,7 @@
       <selection activeCell="E1" sqref="E1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.140625" customWidth="1"/>
     <col min="2" max="2" width="9.28515625" bestFit="1" customWidth="1"/>
@@ -4685,16 +4702,16 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:W40">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:W40">
     <sortCondition ref="B3:B40"/>
   </sortState>
   <customSheetViews>
+    <customSheetView guid="{E773EDD3-07CB-0342-92CD-1C6EFAD01BAD}">
+      <selection activeCell="D14" sqref="D14"/>
+      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+    </customSheetView>
     <customSheetView guid="{0E60F5D3-6264-4CC1-A007-66AE815EFEE7}" scale="89" topLeftCell="A17">
       <selection activeCell="X1" sqref="X1:Y1048576"/>
-      <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-    </customSheetView>
-    <customSheetView guid="{E773EDD3-07CB-0342-92CD-1C6EFAD01BAD}">
-      <selection activeCell="D14" sqref="D14"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
